--- a/application/migration/emptyOffer.xlsx
+++ b/application/migration/emptyOffer.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="18975" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,81 +12,250 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Type (empty/text)</t>
-  </si>
-  <si>
-    <t>Visibility(empty/text)</t>
-  </si>
-  <si>
-    <t>Clickouts (empty/Number)</t>
-  </si>
-  <si>
-    <t>Author Name (empty/ text)</t>
-  </si>
-  <si>
-    <t>Created_at (date)</t>
-  </si>
-  <si>
-    <t>Tiles id(Number)</t>
-  </si>
-  <si>
-    <t>Extended(0)</t>
-  </si>
-  <si>
-    <t>Coupon Code (empty/ Number )</t>
-  </si>
-  <si>
-    <t>Exclusive(0/1 )</t>
-  </si>
-  <si>
-    <t>Editor Pick(0/1)</t>
-  </si>
-  <si>
-    <t>UserGenerated(0)</t>
-  </si>
-  <si>
-    <t>Offline(0)</t>
-  </si>
-  <si>
-    <t>Deeplink(empty/url)</t>
-  </si>
-  <si>
-    <t>form_backend_Shop Name(Must be filled)</t>
-  </si>
-  <si>
-    <t>form_backend_Offer Title(Must be filled)</t>
-  </si>
-  <si>
-    <t>form_backend_Start Date(Must be filled)</t>
-  </si>
-  <si>
-    <t>form_backend_End Date(Must be filled)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arthur Goldman</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-04-2015</t>
+  </si>
+  <si>
+    <t>01-07-2015</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>InkClub</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 19 € en InkClub</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxifundas</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 50 € en Maxifundas</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mamuky</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 55 € en Mamuky</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prenatal</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasta 50% de descuento en una selección de artículos en Prenatal</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 90 € en Prenatal</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arthur Goldman</t>
+  </si>
+  <si>
+    <t>Tous</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasta 50% de descuento en una selección de joyas y accesorios en Tous</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 100 € en Tous</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sony</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasta 50% de descuento en una selección de artículos en Sony</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nike</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 50 € en Nike</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offemily</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 49 € en Offemily</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-03-2015</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNAC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10% de descuentoen walkie-talkies Motorola en FNAC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-03-2015</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>25% de descuentoen juegos educativos Diset en FNAC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>29-03-2015</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuito en el Phablet 2 5 HD 16 GBen FNAC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PromoFarma</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasta 70% de descuento en una selección de productos en PromoFarma</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-08-2015</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iberostar</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7% de descuento en Iberostar</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estancia para niños gratis en Iberostar</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBay</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasta 60% de descuento en una selección de artículos en eBay</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levi's</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuitoen compras superiores a 125 € en Levi's</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lookfantastic</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envío estándar gratuito en Lookfantastic</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>form_backend_Offer Title | Text | Required</t>
+  </si>
+  <si>
+    <t>form_backend_Shop Name | Text | Required</t>
+  </si>
+  <si>
+    <t>form_backend_Start Date | DD-MM-YYYY (01-01-1970) | Required</t>
+  </si>
+  <si>
+    <t>form_backend_End Date | DD-MM-YYYY (01-01-1970) | Required | Must be in future</t>
+  </si>
+  <si>
+    <t>Exclusive | 0/1 (Off/On) | Required</t>
+  </si>
+  <si>
+    <t>Editor Pick | 0/1 (Off/On) | Required</t>
+  </si>
+  <si>
+    <t>UserGenerated | 0/1 (Off/On) | Optional | Defaults to 0</t>
+  </si>
+  <si>
+    <t>Clickouts | Number | Optional | Defaults to 0</t>
+  </si>
+  <si>
+    <t>Visibility | DE/MEM | Optional | Defaults to DE</t>
+  </si>
+  <si>
+    <t>Author Name | Text | Optional | Defaults to Arthur Goldman</t>
+  </si>
+  <si>
+    <t>Offline | 0/1 (Off/On) | Optional | Defaults to 0</t>
+  </si>
+  <si>
+    <t>Created_at | DD-MM-YYYY (01-01-1970) | Optional | Defaults to CURRENT_DATE</t>
+  </si>
+  <si>
+    <t>Deeplink | Url (http://www.flipit.com) | Optional | Defaults to NULL</t>
+  </si>
+  <si>
+    <t>Tiles id | Number | Optional | Defaults to NULL</t>
+  </si>
+  <si>
+    <t>Coupon Code | Text | Alphanumeric |Optional | Defaults to NULL</t>
+  </si>
+  <si>
+    <t>Extended | 0 (Off) | Optional | Defaults to 0</t>
+  </si>
+  <si>
+    <t>OfferType | sale/coupon | Optional | Defaults to sale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,66 +282,58 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,16 +633,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
@@ -489,262 +650,1168 @@
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" customWidth="1"/>
     <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="10" max="10" width="41.42578125" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" customWidth="1"/>
     <col min="12" max="12" width="48.140625" customWidth="1"/>
     <col min="13" max="13" width="56.42578125" customWidth="1"/>
     <col min="14" max="14" width="38.28515625" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" customWidth="1"/>
     <col min="16" max="16" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="H19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="6:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -752,11 +1819,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N12:N13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -766,8 +1840,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>